--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N2">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O2">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P2">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q2">
-        <v>1.392938543659213</v>
+        <v>46.73450490263333</v>
       </c>
       <c r="R2">
-        <v>1.392938543659213</v>
+        <v>420.6105441237</v>
       </c>
       <c r="S2">
-        <v>0.004555124647816482</v>
+        <v>0.08076408747644327</v>
       </c>
       <c r="T2">
-        <v>0.004555124647816482</v>
+        <v>0.08076408747644326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N3">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q3">
-        <v>26.22391216268897</v>
+        <v>130.8083093413662</v>
       </c>
       <c r="R3">
-        <v>26.22391216268897</v>
+        <v>1177.274784072296</v>
       </c>
       <c r="S3">
-        <v>0.0857562519166413</v>
+        <v>0.2260559678614777</v>
       </c>
       <c r="T3">
-        <v>0.0857562519166413</v>
+        <v>0.2260559678614777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N4">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q4">
-        <v>0.052714641758779</v>
+        <v>0.2704700868364445</v>
       </c>
       <c r="R4">
-        <v>0.052714641758779</v>
+        <v>2.434230781528</v>
       </c>
       <c r="S4">
-        <v>0.0001723850381406179</v>
+        <v>0.0004674120288324474</v>
       </c>
       <c r="T4">
-        <v>0.0001723850381406179</v>
+        <v>0.0004674120288324474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N5">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q5">
-        <v>9.486213440581198</v>
+        <v>51.57804545406179</v>
       </c>
       <c r="R5">
-        <v>9.486213440581198</v>
+        <v>464.202409086556</v>
       </c>
       <c r="S5">
-        <v>0.03102138630188632</v>
+        <v>0.08913443682766162</v>
       </c>
       <c r="T5">
-        <v>0.03102138630188632</v>
+        <v>0.0891344368276616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N6">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O6">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P6">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q6">
-        <v>7.59020869423203</v>
+        <v>52.87705967005</v>
       </c>
       <c r="R6">
-        <v>7.59020869423203</v>
+        <v>475.89353703045</v>
       </c>
       <c r="S6">
-        <v>0.02482115730270581</v>
+        <v>0.0913793241543123</v>
       </c>
       <c r="T6">
-        <v>0.02482115730270581</v>
+        <v>0.09137932415431228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N7">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q7">
-        <v>142.8957271662057</v>
+        <v>148.0011137978707</v>
       </c>
       <c r="R7">
-        <v>142.8957271662057</v>
+        <v>1332.010024180836</v>
       </c>
       <c r="S7">
-        <v>0.4672911463649537</v>
+        <v>0.2557676587413413</v>
       </c>
       <c r="T7">
-        <v>0.4672911463649537</v>
+        <v>0.2557676587413413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N8">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q8">
-        <v>0.2872453591094688</v>
+        <v>0.3060193523053333</v>
       </c>
       <c r="R8">
-        <v>0.2872453591094688</v>
+        <v>2.754174170748</v>
       </c>
       <c r="S8">
-        <v>0.0009393367863977718</v>
+        <v>0.0005288463800047622</v>
       </c>
       <c r="T8">
-        <v>0.0009393367863977718</v>
+        <v>0.0005288463800047622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N9">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q9">
-        <v>51.69096659705593</v>
+        <v>58.35721150402733</v>
       </c>
       <c r="R9">
-        <v>51.69096659705593</v>
+        <v>525.214903536246</v>
       </c>
       <c r="S9">
-        <v>0.169037461909241</v>
+        <v>0.1008498312887229</v>
       </c>
       <c r="T9">
-        <v>0.169037461909241</v>
+        <v>0.1008498312887229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N10">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O10">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P10">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q10">
-        <v>0.8151079149710384</v>
+        <v>6.379663658591666</v>
       </c>
       <c r="R10">
-        <v>0.8151079149710384</v>
+        <v>57.41697292732499</v>
       </c>
       <c r="S10">
-        <v>0.002665529050808759</v>
+        <v>0.01102499566147647</v>
       </c>
       <c r="T10">
-        <v>0.002665529050808759</v>
+        <v>0.01102499566147647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N11">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q11">
-        <v>15.34548560136807</v>
+        <v>17.85646427806511</v>
       </c>
       <c r="R11">
-        <v>15.34548560136807</v>
+        <v>160.708178502586</v>
       </c>
       <c r="S11">
-        <v>0.05018211321217197</v>
+        <v>0.03085859251057079</v>
       </c>
       <c r="T11">
-        <v>0.05018211321217197</v>
+        <v>0.0308585925105708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N12">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q12">
-        <v>0.03084710515624577</v>
+        <v>0.03692150344422222</v>
       </c>
       <c r="R12">
-        <v>0.03084710515624577</v>
+        <v>0.332293530998</v>
       </c>
       <c r="S12">
-        <v>0.0001008748086199693</v>
+        <v>6.380577990808976E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001008748086199693</v>
+        <v>6.380577990808977E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N13">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q13">
-        <v>5.551061598317081</v>
+        <v>7.040848787207889</v>
       </c>
       <c r="R13">
-        <v>5.551061598317081</v>
+        <v>63.367639084871</v>
       </c>
       <c r="S13">
-        <v>0.01815283066373955</v>
+        <v>0.01216762065936481</v>
       </c>
       <c r="T13">
-        <v>0.01815283066373955</v>
+        <v>0.01216762065936481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N14">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O14">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P14">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q14">
-        <v>1.66577388362104</v>
+        <v>11.89959568170833</v>
       </c>
       <c r="R14">
-        <v>1.66577388362104</v>
+        <v>107.096361135375</v>
       </c>
       <c r="S14">
-        <v>0.005447338441104665</v>
+        <v>0.02056424880447692</v>
       </c>
       <c r="T14">
-        <v>0.005447338441104665</v>
+        <v>0.02056424880447692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N15">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q15">
-        <v>31.36039863770662</v>
+        <v>33.30656858809223</v>
       </c>
       <c r="R15">
-        <v>31.36039863770662</v>
+        <v>299.75911729283</v>
       </c>
       <c r="S15">
-        <v>0.1025533577559734</v>
+        <v>0.05755864162021468</v>
       </c>
       <c r="T15">
-        <v>0.1025533577559734</v>
+        <v>0.05755864162021469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N16">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q16">
-        <v>0.06303987632902798</v>
+        <v>0.06886741785444445</v>
       </c>
       <c r="R16">
-        <v>0.06303987632902798</v>
+        <v>0.61980676069</v>
       </c>
       <c r="S16">
-        <v>0.0002061501534068479</v>
+        <v>0.0001190130112956374</v>
       </c>
       <c r="T16">
-        <v>0.0002061501534068479</v>
+        <v>0.0001190130112956374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N17">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q17">
-        <v>11.34428125038733</v>
+        <v>13.13286378522278</v>
       </c>
       <c r="R17">
-        <v>11.34428125038733</v>
+        <v>118.195774067005</v>
       </c>
       <c r="S17">
-        <v>0.03709755564639185</v>
+        <v>0.02269551719389631</v>
       </c>
       <c r="T17">
-        <v>0.03709755564639185</v>
+        <v>0.02269551719389631</v>
       </c>
     </row>
   </sheetData>
